--- a/Documentos/Product BackLog.xlsx
+++ b/Documentos/Product BackLog.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c70baa8114ef1f7/Área de Trabalho/viaTech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c70baa8114ef1f7/Área de Trabalho/viaTech/ViaTech/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2099302-290C-478D-B3A8-DAF954E453F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D2099302-290C-478D-B3A8-DAF954E453F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95D4EF1-3DF7-4627-9AA5-9412DC48C489}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F12788B0-8D81-44C1-9DFB-956288AC0FF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product BackLog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -247,16 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -264,35 +255,44 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAF1B46-E201-4ED4-8DA3-EABABCD298CF}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,480 +644,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12">
+      <c r="A7" s="14"/>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="15">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5">
         <v>17</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5">
         <v>21</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5">
         <v>22</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1125,5 +1125,6 @@
     <mergeCell ref="A1:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>